--- a/Spatial/PDFs/figure1_zMIs_AD_Data.xlsx
+++ b/Spatial/PDFs/figure1_zMIs_AD_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C2E2625-E6F4-4AD5-954B-11FE6B63C971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{513EF613-5B0E-4FD4-B06A-ABDB6FF31B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{769757C9-D5D9-4861-85A6-F0CC4D166191}"/>
   </bookViews>

--- a/Spatial/PDFs/figure1_zMIs_AD_Data.xlsx
+++ b/Spatial/PDFs/figure1_zMIs_AD_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\brendan.mcallister\Documents\GitHub\Toolbox_2P\Spatial\PDFs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC8DBA5D-F037-489C-8C3D-9BAF886FEA10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D7D84FD-6328-4C94-A6FB-E37FEC177969}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{19EAF298-D590-4136-91B1-C9E873DA5431}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="19185" windowHeight="10200" xr2:uid="{19EAF298-D590-4136-91B1-C9E873DA5431}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,16 +433,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.0329117741211551</v>
+        <v>4.1779859373654018</v>
       </c>
       <c r="C2">
-        <v>5.0058139545640215</v>
+        <v>5.3931098592940749</v>
       </c>
       <c r="D2">
-        <v>4.9732206134840427</v>
+        <v>5.0419993538224483</v>
       </c>
       <c r="E2">
-        <v>6.1775507115689612</v>
+        <v>6.3031059250764843</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.7042393252895582</v>
+        <v>4.7295936772576903</v>
       </c>
       <c r="C3">
-        <v>3.7685479089667084</v>
+        <v>3.5995720866577487</v>
       </c>
       <c r="D3">
-        <v>4.1896889271624485</v>
+        <v>4.881928421789743</v>
       </c>
       <c r="E3">
-        <v>3.9687646713886635</v>
+        <v>5.3710582657432315</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -467,16 +467,16 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>4.3765068702888197</v>
+        <v>4.3617504905555675</v>
       </c>
       <c r="C4">
-        <v>3.478098661434105</v>
+        <v>3.3587065286314588</v>
       </c>
       <c r="D4">
-        <v>4.5549022445155378</v>
+        <v>4.5376034470208815</v>
       </c>
       <c r="E4">
-        <v>5.4551754368058987</v>
+        <v>5.0297340196489166</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -484,16 +484,16 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>7.0983828066971357</v>
+        <v>7.0396245777096524</v>
       </c>
       <c r="C5">
-        <v>5.6645774849063164</v>
+        <v>6.199538291399505</v>
       </c>
       <c r="D5">
-        <v>10.409748864093498</v>
+        <v>11.475849146013182</v>
       </c>
       <c r="E5">
-        <v>9.8440058275733495</v>
+        <v>10.886121698254675</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,16 +501,16 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>8.906616855517985</v>
+        <v>8.6313764549936494</v>
       </c>
       <c r="C6">
-        <v>10.4840696306625</v>
+        <v>9.3871737136377291</v>
       </c>
       <c r="D6">
-        <v>12.682994177401527</v>
+        <v>13.994696351232049</v>
       </c>
       <c r="E6">
-        <v>13.149756979420729</v>
+        <v>13.657901444118849</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -524,10 +524,10 @@
         <v>3.7942060945717535</v>
       </c>
       <c r="D7">
-        <v>5.9718338533317654</v>
+        <v>6.5184115831398675</v>
       </c>
       <c r="E7">
-        <v>8.7075866919929741</v>
+        <v>8.801623747527163</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -535,16 +535,16 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>8.1018946537230505</v>
+        <v>7.4513496286653034</v>
       </c>
       <c r="C8">
-        <v>6.2805318448153296</v>
+        <v>6.1545010969634601</v>
       </c>
       <c r="D8">
-        <v>6.4794417059501423</v>
+        <v>6.3715693260483972</v>
       </c>
       <c r="E8">
-        <v>5.3241820912376561</v>
+        <v>5.3072048897267372</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -552,16 +552,16 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>4.0142432163138944</v>
+        <v>3.9328187850795353</v>
       </c>
       <c r="C9">
-        <v>3.9815043972426434</v>
+        <v>4.2742456024664905</v>
       </c>
       <c r="D9">
-        <v>4.3220736462673432</v>
+        <v>4.42764651119536</v>
       </c>
       <c r="E9">
-        <v>4.0668642565912823</v>
+        <v>4.18435337109673</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,16 +569,16 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>4.0954507494777701</v>
+        <v>4.2511367713971175</v>
       </c>
       <c r="C10">
-        <v>3.7200554218542776</v>
+        <v>3.7240190738613905</v>
       </c>
       <c r="D10">
-        <v>7.1240935961735028</v>
+        <v>8.8307553959773557</v>
       </c>
       <c r="E10">
-        <v>5.2251767323195955</v>
+        <v>5.3340394021859909</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,16 +586,16 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>5.6047631331716703</v>
+        <v>5.5052746744785468</v>
       </c>
       <c r="C11">
-        <v>3.7347942982287941</v>
+        <v>4.02717417645722</v>
       </c>
       <c r="D11">
-        <v>8.1412125987929311</v>
+        <v>9.2216724982424267</v>
       </c>
       <c r="E11">
-        <v>7.9019529524134651</v>
+        <v>8.7857994732382583</v>
       </c>
     </row>
   </sheetData>
